--- a/resources/experiment 2/metrics/MAPE/average time/Macroalbuminuria.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Macroalbuminuria.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08639300626639605</v>
+        <v>0.01757020049857353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08639300626639605</v>
+        <v>0.01911226359807061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08639300626639605</v>
+        <v>61282315316520.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56090826007823.85</v>
+        <v>0.02004270100233599</v>
       </c>
       <c r="C4" t="n">
-        <v>56090826007823.85</v>
+        <v>0.02202844305256954</v>
       </c>
       <c r="D4" t="n">
-        <v>56090826007823.85</v>
+        <v>0.082088466149235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>465335497560729.6</v>
+        <v>21879283314028.84</v>
       </c>
       <c r="C5" t="n">
-        <v>465335497560729.6</v>
+        <v>4396964490890.669</v>
       </c>
       <c r="D5" t="n">
-        <v>465335497560729.6</v>
+        <v>164074473178293.1</v>
       </c>
     </row>
   </sheetData>
